--- a/data/tehilim-data/70.xlsx
+++ b/data/tehilim-data/70.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>original</t>
   </si>
@@ -22,52 +22,52 @@
     <t>א</t>
   </si>
   <si>
-    <t>לַמְנַצֵּ֥חַ</t>
-  </si>
-  <si>
-    <t>Руководителю</t>
-  </si>
-  <si>
-    <t>לְדָוִ֑ד</t>
-  </si>
-  <si>
-    <t>Давиду</t>
-  </si>
-  <si>
-    <t>לְהַזְכִּֽיר</t>
-  </si>
-  <si>
-    <t>в воспоминание</t>
+    <t>לַמְנַצֵּחַ</t>
+  </si>
+  <si>
+    <t>руководителю</t>
+  </si>
+  <si>
+    <t>לְדָוִד</t>
+  </si>
+  <si>
+    <t>давида</t>
+  </si>
+  <si>
+    <t>לְהַזְכִּיר</t>
+  </si>
+  <si>
+    <t>упоминать</t>
   </si>
   <si>
     <t>ב</t>
   </si>
   <si>
-    <t>אֱלֹהִ֣ים</t>
-  </si>
-  <si>
-    <t>Боже</t>
-  </si>
-  <si>
-    <t>לְהַצִּילֵ֑נִי</t>
+    <t>אֱלֹהִים</t>
+  </si>
+  <si>
+    <t>бог</t>
+  </si>
+  <si>
+    <t>לְהַצִּילֵנִי</t>
   </si>
   <si>
     <t>спаси меня</t>
   </si>
   <si>
-    <t>יְהוָ֖ה</t>
-  </si>
-  <si>
-    <t>Господи</t>
-  </si>
-  <si>
-    <t>לְעֶזְרָתִ֣י</t>
-  </si>
-  <si>
-    <t>мне на помощь</t>
-  </si>
-  <si>
-    <t>ח֭וּשָׁה</t>
+    <t>יְהֹוָה</t>
+  </si>
+  <si>
+    <t>нашем</t>
+  </si>
+  <si>
+    <t>לְעֶזְרָתִי</t>
+  </si>
+  <si>
+    <t>на помощь мне</t>
+  </si>
+  <si>
+    <t>חוּשָׁה</t>
   </si>
   <si>
     <t>поспеши</t>
@@ -76,233 +76,224 @@
     <t>ג</t>
   </si>
   <si>
-    <t>יֵבֹ֣שׁוּ</t>
-  </si>
-  <si>
-    <t>пусть стыдятся</t>
-  </si>
-  <si>
-    <t>וְיַחְפְּרוּ֮</t>
-  </si>
-  <si>
-    <t>и краснеют</t>
-  </si>
-  <si>
-    <t>מְבַקְשֵׁ֪י</t>
-  </si>
-  <si>
-    <t>ищущие</t>
-  </si>
-  <si>
-    <t>נַפְשִׁ֫י֥</t>
-  </si>
-  <si>
-    <t>душу мою</t>
-  </si>
-  <si>
-    <t>יִסֹּ֥גוּ</t>
-  </si>
-  <si>
-    <t>пусть отступят</t>
-  </si>
-  <si>
-    <t>אָח֑וֹר</t>
+    <t>יֵבֹשׁוּ</t>
+  </si>
+  <si>
+    <t>поносимы</t>
+  </si>
+  <si>
+    <t>וְיִכָּלְמוּ</t>
+  </si>
+  <si>
+    <t>и позорены</t>
+  </si>
+  <si>
+    <t>מְבַקְשֵׁי</t>
+  </si>
+  <si>
+    <t>стремящиеся</t>
+  </si>
+  <si>
+    <t>נַפְשִׁי</t>
+  </si>
+  <si>
+    <t>душе моей</t>
+  </si>
+  <si>
+    <t>יִסֹּגוּ</t>
+  </si>
+  <si>
+    <t>попятятся</t>
+  </si>
+  <si>
+    <t>אָחוֹר</t>
   </si>
   <si>
     <t>назад</t>
   </si>
   <si>
-    <t>וְיִכָּלְמ֖וּ</t>
-  </si>
-  <si>
-    <t>и будут посрамлены</t>
-  </si>
-  <si>
-    <t>חֲפֵ֣צֵי</t>
-  </si>
-  <si>
-    <t>желающие</t>
-  </si>
-  <si>
-    <t>רָעָתִֽי</t>
-  </si>
-  <si>
-    <t>зла мне</t>
+    <t>וְיַחְפְּרוּ</t>
+  </si>
+  <si>
+    <t>и поносимы</t>
+  </si>
+  <si>
+    <t>חֲפֵצֵי</t>
+  </si>
+  <si>
+    <t>пристыжены</t>
+  </si>
+  <si>
+    <t>רָעָתִי</t>
+  </si>
+  <si>
+    <t>злом мне</t>
   </si>
   <si>
     <t>ד</t>
   </si>
   <si>
-    <t>יָשׁ֣וּבוּ</t>
-  </si>
-  <si>
-    <t>пусть вернутся</t>
-  </si>
-  <si>
-    <t>עֵ֣קֶב</t>
-  </si>
-  <si>
-    <t>за</t>
-  </si>
-  <si>
-    <t>בָּ֭שְׁתָּם</t>
-  </si>
-  <si>
-    <t>стыд их</t>
-  </si>
-  <si>
-    <t>הָאֹֽמְרִ֥ים</t>
+    <t>יָשׁוּבוּ</t>
+  </si>
+  <si>
+    <t>вернутся</t>
+  </si>
+  <si>
+    <t>עַל</t>
+  </si>
+  <si>
+    <t>по</t>
+  </si>
+  <si>
+    <t>עֵקֶב</t>
+  </si>
+  <si>
+    <t>следам</t>
+  </si>
+  <si>
+    <t>בָּשְׁתָּם</t>
+  </si>
+  <si>
+    <t>пристыжения их</t>
+  </si>
+  <si>
+    <t>הָאֹמְרִים</t>
   </si>
   <si>
     <t>говорящие</t>
   </si>
   <si>
-    <t>הֶ֝֗אָ֫ח</t>
-  </si>
-  <si>
-    <t>ах</t>
-  </si>
-  <si>
-    <t>הֶ֗אָ֫ח</t>
+    <t>הֶאָה</t>
+  </si>
+  <si>
+    <t>ура</t>
   </si>
   <si>
     <t>ה</t>
   </si>
   <si>
-    <t>יָשִׂ֣ישׂוּ</t>
-  </si>
-  <si>
-    <t>будут радоваться</t>
-  </si>
-  <si>
-    <t>וְיִשְׂמְחוּ־</t>
-  </si>
-  <si>
-    <t>и будут веселиться</t>
-  </si>
-  <si>
-    <t>בְךָ֣֮</t>
-  </si>
-  <si>
-    <t>в Тебе</t>
-  </si>
-  <si>
-    <t>כָּֽל־</t>
+    <t>יָשִׂישׂוּ</t>
+  </si>
+  <si>
+    <t>радуются бурно</t>
+  </si>
+  <si>
+    <t>וְיִשְׂמְחוּ</t>
+  </si>
+  <si>
+    <t>и радуются</t>
+  </si>
+  <si>
+    <t>בְךָ</t>
+  </si>
+  <si>
+    <t>тебе</t>
+  </si>
+  <si>
+    <t>כָּל</t>
   </si>
   <si>
     <t>все</t>
   </si>
   <si>
-    <t>מְבַקְשֶׁ֪יךָ֫</t>
-  </si>
-  <si>
-    <t>ищущие Тебя</t>
-  </si>
-  <si>
-    <t>וְיֹאמְר֣וּ</t>
+    <t>מְבַקְשֶׁיךָ</t>
+  </si>
+  <si>
+    <t>просящие (ищущие тебя)</t>
+  </si>
+  <si>
+    <t>וְיֹאמְרוּ</t>
   </si>
   <si>
     <t>и будут говорить</t>
   </si>
   <si>
-    <t>תָמִ֣יד</t>
-  </si>
-  <si>
-    <t>всегда</t>
-  </si>
-  <si>
-    <t>יִגְדַּ֣ל</t>
+    <t>תָמִיד</t>
+  </si>
+  <si>
+    <t>постоянно</t>
+  </si>
+  <si>
+    <t>יִגְדַּל</t>
   </si>
   <si>
     <t>возвеличится</t>
   </si>
   <si>
-    <t>אֱלֹהִ֑ים</t>
-  </si>
-  <si>
-    <t>Бог</t>
-  </si>
-  <si>
-    <t>אֹ֝הֲבֵ֗י</t>
+    <t>אֹהֲבֵי</t>
   </si>
   <si>
     <t>любящие</t>
   </si>
   <si>
-    <t>יְשׁוּעָתֶֽךָ</t>
-  </si>
-  <si>
-    <t>спасение Твое</t>
+    <t>יְשׁוּעָתֶךָ</t>
+  </si>
+  <si>
+    <t>избавление (посредством тебя)</t>
   </si>
   <si>
     <t>ו</t>
   </si>
   <si>
-    <t>וַאֲנִ֤י</t>
-  </si>
-  <si>
-    <t>А я</t>
-  </si>
-  <si>
-    <t>עָנִי֙</t>
-  </si>
-  <si>
-    <t>бедный</t>
-  </si>
-  <si>
-    <t>וְאֶבְי֣וֹן</t>
-  </si>
-  <si>
-    <t>и нищий</t>
-  </si>
-  <si>
-    <t>אֱ֭לֹהִים</t>
-  </si>
-  <si>
-    <t>לִֽי</t>
+    <t>וַאֲנִי</t>
+  </si>
+  <si>
+    <t>а я</t>
+  </si>
+  <si>
+    <t>עָנִי</t>
+  </si>
+  <si>
+    <t>беден</t>
+  </si>
+  <si>
+    <t>וְאֶבְיוֹן</t>
+  </si>
+  <si>
+    <t>и нищ</t>
+  </si>
+  <si>
+    <t>לִי</t>
   </si>
   <si>
     <t>ко мне</t>
   </si>
   <si>
-    <t>עֶזְרִ֣י</t>
-  </si>
-  <si>
-    <t>помощь моя</t>
-  </si>
-  <si>
-    <t>וּמְפַלְטִי֮</t>
-  </si>
-  <si>
-    <t>и избавитель мой</t>
-  </si>
-  <si>
-    <t>אַ֤תָּה</t>
-  </si>
-  <si>
-    <t>Ты</t>
-  </si>
-  <si>
-    <t>יְהוָ֗ה</t>
-  </si>
-  <si>
-    <t>אַל־</t>
+    <t>עֶזְרִי</t>
+  </si>
+  <si>
+    <t>помощь мне</t>
+  </si>
+  <si>
+    <t>וּמְפַלְטִי</t>
+  </si>
+  <si>
+    <t>и прибежище мое</t>
+  </si>
+  <si>
+    <t>אַתָּה</t>
+  </si>
+  <si>
+    <t>ты</t>
+  </si>
+  <si>
+    <t>אַל</t>
   </si>
   <si>
     <t>не</t>
   </si>
   <si>
-    <t>תְּאַחַ֥ר</t>
-  </si>
-  <si>
-    <t>замедли</t>
+    <t>תְאַחַר</t>
+  </si>
+  <si>
+    <t>опоздай</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -310,7 +301,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -333,20 +330,33 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -572,533 +582,595 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>1.0</v>
       </c>
+      <c r="C2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>2.0</v>
       </c>
+      <c r="C6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="C7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="C8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="C9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="C10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="C11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>3.0</v>
       </c>
+      <c r="C12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="C13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="C15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="C16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="C17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="C19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="C20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="C21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>4.0</v>
       </c>
+      <c r="C22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="C23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="C24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="C25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="C26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="C27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="B28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="3">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="4">
         <v>5.0</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="B41" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="B42" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="B43" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="B44" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="B45" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="B48" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B49" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B50" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B51" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B53" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
+      <c r="B54" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="4"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="4"/>
+      <c r="A55" s="9"/>
     </row>
     <row r="56">
-      <c r="A56" s="4"/>
+      <c r="A56" s="9"/>
     </row>
     <row r="57">
-      <c r="A57" s="4"/>
+      <c r="A57" s="9"/>
     </row>
     <row r="58">
-      <c r="A58" s="4"/>
+      <c r="A58" s="9"/>
     </row>
     <row r="59">
-      <c r="A59" s="4"/>
+      <c r="A59" s="9"/>
     </row>
     <row r="60">
-      <c r="A60" s="4"/>
+      <c r="A60" s="9"/>
     </row>
     <row r="61">
-      <c r="A61" s="4"/>
+      <c r="A61" s="9"/>
     </row>
     <row r="62">
-      <c r="A62" s="4"/>
+      <c r="A62" s="9"/>
     </row>
     <row r="63">
-      <c r="A63" s="4"/>
+      <c r="A63" s="9"/>
     </row>
     <row r="64">
-      <c r="A64" s="4"/>
+      <c r="A64" s="9"/>
     </row>
     <row r="65">
-      <c r="A65" s="4"/>
+      <c r="A65" s="9"/>
     </row>
     <row r="66">
-      <c r="A66" s="4"/>
+      <c r="A66" s="9"/>
     </row>
     <row r="67">
-      <c r="A67" s="4"/>
+      <c r="A67" s="9"/>
     </row>
     <row r="68">
-      <c r="A68" s="4"/>
+      <c r="A68" s="9"/>
     </row>
     <row r="69">
-      <c r="A69" s="4"/>
+      <c r="A69" s="9"/>
     </row>
     <row r="70">
-      <c r="A70" s="4"/>
+      <c r="A70" s="9"/>
     </row>
     <row r="71">
-      <c r="A71" s="4"/>
+      <c r="A71" s="9"/>
     </row>
     <row r="72">
-      <c r="A72" s="4"/>
+      <c r="A72" s="9"/>
     </row>
     <row r="73">
-      <c r="A73" s="4"/>
+      <c r="A73" s="9"/>
     </row>
     <row r="74">
-      <c r="A74" s="4"/>
+      <c r="A74" s="9"/>
     </row>
     <row r="75">
-      <c r="A75" s="4"/>
+      <c r="A75" s="9"/>
     </row>
     <row r="76">
-      <c r="A76" s="4"/>
+      <c r="A76" s="9"/>
     </row>
     <row r="77">
-      <c r="A77" s="4"/>
+      <c r="A77" s="9"/>
     </row>
     <row r="78">
-      <c r="A78" s="4"/>
+      <c r="A78" s="9"/>
     </row>
     <row r="79">
-      <c r="A79" s="4"/>
+      <c r="A79" s="9"/>
     </row>
     <row r="80">
-      <c r="A80" s="4"/>
+      <c r="A80" s="9"/>
     </row>
     <row r="81">
-      <c r="A81" s="4"/>
+      <c r="A81" s="9"/>
     </row>
     <row r="82">
-      <c r="A82" s="4"/>
+      <c r="A82" s="9"/>
     </row>
     <row r="83">
-      <c r="A83" s="4"/>
+      <c r="A83" s="9"/>
     </row>
     <row r="84">
-      <c r="A84" s="4"/>
+      <c r="A84" s="9"/>
     </row>
     <row r="85">
-      <c r="A85" s="4"/>
+      <c r="A85" s="9"/>
     </row>
     <row r="86">
-      <c r="A86" s="4"/>
+      <c r="A86" s="9"/>
     </row>
     <row r="87">
-      <c r="A87" s="4"/>
+      <c r="A87" s="9"/>
     </row>
     <row r="88">
-      <c r="A88" s="4"/>
+      <c r="A88" s="9"/>
     </row>
     <row r="89">
-      <c r="A89" s="4"/>
+      <c r="A89" s="9"/>
     </row>
     <row r="90">
-      <c r="A90" s="4"/>
+      <c r="A90" s="9"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
